--- a/Tổng kết dự án.xlsx
+++ b/Tổng kết dự án.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyroh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71F65CF-6298-42C3-916A-5928C90FDC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA96A7FB-700C-455C-A138-2B8855C087EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     </r>
   </si>
   <si>
-    <t>Dán Link download vào đây.</t>
-  </si>
-  <si>
     <t>Nguyễn Hữu Đạt (Trưởng nhóm)</t>
   </si>
   <si>
@@ -334,13 +331,16 @@
   </si>
   <si>
     <t>Test case cho chức năng xem tìm kiếm</t>
+  </si>
+  <si>
+    <t>https://github.com/huudat626/WebTimTro/tree/master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +428,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -654,10 +662,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -836,8 +845,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1149,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1236,8 +1249,8 @@
       <c r="U3" s="34"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>51</v>
+      <c r="A4" s="62" t="s">
+        <v>88</v>
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -1352,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="35">
         <v>4051050101</v>
@@ -1410,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="35">
         <v>4051050030</v>
@@ -1468,7 +1481,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="35">
         <v>4051050161</v>
@@ -1639,7 +1652,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>40</v>
@@ -1670,7 +1683,7 @@
         <v>1.2</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
@@ -1757,7 +1770,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>40</v>
@@ -1788,7 +1801,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>40</v>
@@ -1819,7 +1832,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>40</v>
@@ -1850,7 +1863,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1878,10 +1891,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
@@ -1912,7 +1925,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
@@ -1970,7 +1983,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>40</v>
@@ -2003,7 +2016,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
@@ -2036,7 +2049,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>40</v>
@@ -2069,7 +2082,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>40</v>
@@ -2099,10 +2112,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>69</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2224,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>40</v>
@@ -2255,7 +2268,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
@@ -2286,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2371,7 +2384,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>40</v>
@@ -2406,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>40</v>
@@ -2441,7 +2454,7 @@
         <v>21</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>40</v>
@@ -2459,7 +2472,9 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="R40" s="5" t="s">
         <v>40</v>
       </c>
@@ -2469,16 +2484,14 @@
       <c r="T40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="U40" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="U40" s="5"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2510,10 +2523,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2543,10 +2556,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
@@ -2576,10 +2589,10 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
@@ -2599,13 +2612,13 @@
       <c r="P44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q44" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="Q44" s="5"/>
       <c r="R44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
     </row>
@@ -2776,7 +2789,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2793,11 +2806,11 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
+      <c r="P51" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="Q51" s="5"/>
-      <c r="R51" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -2807,7 +2820,7 @@
         <v>5.2</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2825,12 +2838,12 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="T52" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="T52" s="5"/>
       <c r="U52" s="5"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -2838,7 +2851,7 @@
         <v>5.3</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
@@ -2869,7 +2882,7 @@
         <v>5.4</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
@@ -2900,7 +2913,7 @@
         <v>5.5</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>40</v>
@@ -2931,7 +2944,7 @@
         <v>5.6</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>40</v>
@@ -3034,7 +3047,10 @@
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{E54F4786-1BEB-49CC-B4D8-4D2A88CD9A1C}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>